--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1984695</v>
+        <v>5.305092</v>
       </c>
       <c r="H2">
-        <v>4.396939</v>
+        <v>10.610184</v>
       </c>
       <c r="I2">
-        <v>0.002958499252611962</v>
+        <v>0.004762765491987445</v>
       </c>
       <c r="J2">
-        <v>0.001988798532331175</v>
+        <v>0.003207058676000514</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N2">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O2">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P2">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q2">
-        <v>14.55862228029375</v>
+        <v>59.26355143589401</v>
       </c>
       <c r="R2">
-        <v>58.234489121175</v>
+        <v>237.054205743576</v>
       </c>
       <c r="S2">
-        <v>0.0004868685312003113</v>
+        <v>0.001821868815793428</v>
       </c>
       <c r="T2">
-        <v>0.0002455983089982261</v>
+        <v>0.0010365264819741</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1984695</v>
+        <v>5.305092</v>
       </c>
       <c r="H3">
-        <v>4.396939</v>
+        <v>10.610184</v>
       </c>
       <c r="I3">
-        <v>0.002958499252611962</v>
+        <v>0.004762765491987445</v>
       </c>
       <c r="J3">
-        <v>0.001988798532331175</v>
+        <v>0.003207058676000514</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.442826</v>
       </c>
       <c r="O3">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P3">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q3">
-        <v>9.118391151602333</v>
+        <v>22.003445556664</v>
       </c>
       <c r="R3">
-        <v>54.710346909614</v>
+        <v>132.020673339984</v>
       </c>
       <c r="S3">
-        <v>0.0003049366637459714</v>
+        <v>0.0006764257343412427</v>
       </c>
       <c r="T3">
-        <v>0.0002307355810703197</v>
+        <v>0.0005772642744544676</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1984695</v>
+        <v>5.305092</v>
       </c>
       <c r="H4">
-        <v>4.396939</v>
+        <v>10.610184</v>
       </c>
       <c r="I4">
-        <v>0.002958499252611962</v>
+        <v>0.004762765491987445</v>
       </c>
       <c r="J4">
-        <v>0.001988798532331175</v>
+        <v>0.003207058676000514</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N4">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O4">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P4">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q4">
-        <v>11.56154078025117</v>
+        <v>13.444392265356</v>
       </c>
       <c r="R4">
-        <v>69.369244681507</v>
+        <v>80.66635359213601</v>
       </c>
       <c r="S4">
-        <v>0.0003866403200605471</v>
+        <v>0.0004133049475113179</v>
       </c>
       <c r="T4">
-        <v>0.0002925580604787583</v>
+        <v>0.0003527160019804938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.1984695</v>
+        <v>5.305092</v>
       </c>
       <c r="H5">
-        <v>4.396939</v>
+        <v>10.610184</v>
       </c>
       <c r="I5">
-        <v>0.002958499252611962</v>
+        <v>0.004762765491987445</v>
       </c>
       <c r="J5">
-        <v>0.001988798532331175</v>
+        <v>0.003207058676000514</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N5">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O5">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P5">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q5">
-        <v>15.0568669192525</v>
+        <v>38.792206722828</v>
       </c>
       <c r="R5">
-        <v>60.22746767701</v>
+        <v>155.168826891312</v>
       </c>
       <c r="S5">
-        <v>0.0005035307970986874</v>
+        <v>0.001192542633908493</v>
       </c>
       <c r="T5">
-        <v>0.0002540035027342663</v>
+        <v>0.0006784802562148101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.1984695</v>
+        <v>5.305092</v>
       </c>
       <c r="H6">
-        <v>4.396939</v>
+        <v>10.610184</v>
       </c>
       <c r="I6">
-        <v>0.002958499252611962</v>
+        <v>0.004762765491987445</v>
       </c>
       <c r="J6">
-        <v>0.001988798532331175</v>
+        <v>0.003207058676000514</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N6">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O6">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P6">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q6">
-        <v>15.65970630955483</v>
+        <v>10.6977622271</v>
       </c>
       <c r="R6">
-        <v>93.958237857329</v>
+        <v>64.1865733626</v>
       </c>
       <c r="S6">
-        <v>0.0005236909140970842</v>
+        <v>0.0003288685697719076</v>
       </c>
       <c r="T6">
-        <v>0.0003962597540127181</v>
+        <v>0.0002806576785626644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.1984695</v>
+        <v>5.305092</v>
       </c>
       <c r="H7">
-        <v>4.396939</v>
+        <v>10.610184</v>
       </c>
       <c r="I7">
-        <v>0.002958499252611962</v>
+        <v>0.004762765491987445</v>
       </c>
       <c r="J7">
-        <v>0.001988798532331175</v>
+        <v>0.003207058676000514</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N7">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O7">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P7">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q7">
-        <v>22.511615375882</v>
+        <v>10.726590097028</v>
       </c>
       <c r="R7">
-        <v>135.069692255292</v>
+        <v>64.35954058216799</v>
       </c>
       <c r="S7">
-        <v>0.000752832026409361</v>
+        <v>0.0003297547906610553</v>
       </c>
       <c r="T7">
-        <v>0.0005696433250368864</v>
+        <v>0.0002814139828139781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>25.877693</v>
       </c>
       <c r="I8">
-        <v>0.0116079444358635</v>
+        <v>0.007744093362417658</v>
       </c>
       <c r="J8">
-        <v>0.01170485145655119</v>
+        <v>0.007821851143253291</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N8">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O8">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P8">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q8">
-        <v>57.1220960570375</v>
+        <v>96.36050233422118</v>
       </c>
       <c r="R8">
-        <v>342.732576342225</v>
+        <v>578.1630140053271</v>
       </c>
       <c r="S8">
-        <v>0.001910273545870977</v>
+        <v>0.002962296217883742</v>
       </c>
       <c r="T8">
-        <v>0.001445441394928434</v>
+        <v>0.002528034771771705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>25.877693</v>
       </c>
       <c r="I9">
-        <v>0.0116079444358635</v>
+        <v>0.007744093362417658</v>
       </c>
       <c r="J9">
-        <v>0.01170485145655119</v>
+        <v>0.007821851143253291</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.442826</v>
       </c>
       <c r="O9">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P9">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q9">
         <v>35.77684792004644</v>
@@ -1013,10 +1013,10 @@
         <v>321.991631280418</v>
       </c>
       <c r="S9">
-        <v>0.001196447099351387</v>
+        <v>0.001099845047649958</v>
       </c>
       <c r="T9">
-        <v>0.001357968471046413</v>
+        <v>0.001407917871565701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>25.877693</v>
       </c>
       <c r="I10">
-        <v>0.0116079444358635</v>
+        <v>0.007744093362417658</v>
       </c>
       <c r="J10">
-        <v>0.01170485145655119</v>
+        <v>0.007821851143253291</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N10">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O10">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P10">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q10">
-        <v>45.36277061812323</v>
+        <v>21.86012078046634</v>
       </c>
       <c r="R10">
-        <v>408.264935563109</v>
+        <v>196.741087024197</v>
       </c>
       <c r="S10">
-        <v>0.001517018923687378</v>
+        <v>0.0006720196713571916</v>
       </c>
       <c r="T10">
-        <v>0.001721817763163133</v>
+        <v>0.0008602561855137112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>25.877693</v>
       </c>
       <c r="I11">
-        <v>0.0116079444358635</v>
+        <v>0.007744093362417658</v>
       </c>
       <c r="J11">
-        <v>0.01170485145655119</v>
+        <v>0.007821851143253291</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N11">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O11">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P11">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q11">
-        <v>59.07700480997833</v>
+        <v>63.07479784616233</v>
       </c>
       <c r="R11">
-        <v>354.46202885987</v>
+        <v>378.448787076974</v>
       </c>
       <c r="S11">
-        <v>0.001975649481509011</v>
+        <v>0.001939033427362201</v>
       </c>
       <c r="T11">
-        <v>0.001494909223139553</v>
+        <v>0.00165477844464226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>25.877693</v>
       </c>
       <c r="I12">
-        <v>0.0116079444358635</v>
+        <v>0.007744093362417658</v>
       </c>
       <c r="J12">
-        <v>0.01170485145655119</v>
+        <v>0.007821851143253291</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N12">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O12">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P12">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q12">
-        <v>61.44230070795811</v>
+        <v>17.39419452731389</v>
       </c>
       <c r="R12">
-        <v>552.980706371623</v>
+        <v>156.547750745825</v>
       </c>
       <c r="S12">
-        <v>0.002054749558256129</v>
+        <v>0.0005347290166948098</v>
       </c>
       <c r="T12">
-        <v>0.002332142488807927</v>
+        <v>0.0006845096412972017</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>25.877693</v>
       </c>
       <c r="I13">
-        <v>0.0116079444358635</v>
+        <v>0.007744093362417658</v>
       </c>
       <c r="J13">
-        <v>0.01170485145655119</v>
+        <v>0.007821851143253291</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N13">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O13">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P13">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q13">
-        <v>88.32639731582267</v>
+        <v>17.44106765523455</v>
       </c>
       <c r="R13">
-        <v>794.937575842404</v>
+        <v>156.969608897111</v>
       </c>
       <c r="S13">
-        <v>0.002953805827188617</v>
+        <v>0.0005361699814697562</v>
       </c>
       <c r="T13">
-        <v>0.003352572115465728</v>
+        <v>0.0006863542284627109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>406.45166</v>
+        <v>353.0949096666666</v>
       </c>
       <c r="H14">
-        <v>1219.35498</v>
+        <v>1059.284729</v>
       </c>
       <c r="I14">
-        <v>0.5469654831840476</v>
+        <v>0.3169988854400308</v>
       </c>
       <c r="J14">
-        <v>0.5515317348306877</v>
+        <v>0.3201818442068774</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N14">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O14">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P14">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q14">
-        <v>2691.58894091475</v>
+        <v>3944.447775982555</v>
       </c>
       <c r="R14">
-        <v>16149.5336454885</v>
+        <v>23666.68665589533</v>
       </c>
       <c r="S14">
-        <v>0.09001194817946227</v>
+        <v>0.121259462595012</v>
       </c>
       <c r="T14">
-        <v>0.06810909161045123</v>
+        <v>0.1034832830004888</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>406.45166</v>
+        <v>353.0949096666666</v>
       </c>
       <c r="H15">
-        <v>1219.35498</v>
+        <v>1059.284729</v>
       </c>
       <c r="I15">
-        <v>0.5469654831840476</v>
+        <v>0.3169988854400308</v>
       </c>
       <c r="J15">
-        <v>0.5515317348306877</v>
+        <v>0.3201818442068774</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.442826</v>
       </c>
       <c r="O15">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P15">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q15">
-        <v>1685.802427597053</v>
+        <v>1464.49950748935</v>
       </c>
       <c r="R15">
-        <v>15172.22184837348</v>
+        <v>13180.49556740415</v>
       </c>
       <c r="S15">
-        <v>0.0563764988208442</v>
+        <v>0.04502136505143167</v>
       </c>
       <c r="T15">
-        <v>0.06398737390745882</v>
+        <v>0.0576321042619885</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>406.45166</v>
+        <v>353.0949096666666</v>
       </c>
       <c r="H16">
-        <v>1219.35498</v>
+        <v>1059.284729</v>
       </c>
       <c r="I16">
-        <v>0.5469654831840476</v>
+        <v>0.3169988854400308</v>
       </c>
       <c r="J16">
-        <v>0.5515317348306877</v>
+        <v>0.3201818442068774</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N16">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O16">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P16">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q16">
-        <v>2137.490396064527</v>
+        <v>894.8283031583823</v>
       </c>
       <c r="R16">
-        <v>19237.41356458074</v>
+        <v>8053.45472842544</v>
       </c>
       <c r="S16">
-        <v>0.07148181947101867</v>
+        <v>0.02750864134048857</v>
       </c>
       <c r="T16">
-        <v>0.08113192563824861</v>
+        <v>0.03521396750253066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>406.45166</v>
+        <v>353.0949096666666</v>
       </c>
       <c r="H17">
-        <v>1219.35498</v>
+        <v>1059.284729</v>
       </c>
       <c r="I17">
-        <v>0.5469654831840476</v>
+        <v>0.3169988854400308</v>
       </c>
       <c r="J17">
-        <v>0.5515317348306877</v>
+        <v>0.3201818442068774</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N17">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O17">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P17">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q17">
-        <v>2783.7040967497</v>
+        <v>2581.92143106427</v>
       </c>
       <c r="R17">
-        <v>16702.2245804982</v>
+        <v>15491.52858638562</v>
       </c>
       <c r="S17">
-        <v>0.09309245743090122</v>
+        <v>0.07937293709394071</v>
       </c>
       <c r="T17">
-        <v>0.07044001201664869</v>
+        <v>0.06773716406203281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>406.45166</v>
+        <v>353.0949096666666</v>
       </c>
       <c r="H18">
-        <v>1219.35498</v>
+        <v>1059.284729</v>
       </c>
       <c r="I18">
-        <v>0.5469654831840476</v>
+        <v>0.3169988854400308</v>
       </c>
       <c r="J18">
-        <v>0.5515317348306877</v>
+        <v>0.3201818442068774</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N18">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O18">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P18">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q18">
-        <v>2895.156664502753</v>
+        <v>712.0188278004139</v>
       </c>
       <c r="R18">
-        <v>26056.40998052478</v>
+        <v>6408.169450203724</v>
       </c>
       <c r="S18">
-        <v>0.09681964719623232</v>
+        <v>0.02188874725185116</v>
       </c>
       <c r="T18">
-        <v>0.1098903815652168</v>
+        <v>0.02801990926623148</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>406.45166</v>
+        <v>353.0949096666666</v>
       </c>
       <c r="H19">
-        <v>1219.35498</v>
+        <v>1059.284729</v>
       </c>
       <c r="I19">
-        <v>0.5469654831840476</v>
+        <v>0.3169988854400308</v>
       </c>
       <c r="J19">
-        <v>0.5515317348306877</v>
+        <v>0.3201818442068774</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N19">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O19">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P19">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q19">
-        <v>4161.933308062161</v>
+        <v>713.9375455395424</v>
       </c>
       <c r="R19">
-        <v>37457.39977255945</v>
+        <v>6425.437909855882</v>
       </c>
       <c r="S19">
-        <v>0.1391831120855889</v>
+        <v>0.02194773210730669</v>
       </c>
       <c r="T19">
-        <v>0.1579729500926636</v>
+        <v>0.02809541611360513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.258465</v>
+        <v>27.914117</v>
       </c>
       <c r="H20">
-        <v>32.51693</v>
+        <v>55.828234</v>
       </c>
       <c r="I20">
-        <v>0.02187915572679892</v>
+        <v>0.02506052547003899</v>
       </c>
       <c r="J20">
-        <v>0.01470787351380484</v>
+        <v>0.01687477071231629</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N20">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O20">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P20">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q20">
-        <v>107.6661972305625</v>
+        <v>311.8305410381316</v>
       </c>
       <c r="R20">
-        <v>430.66478892225</v>
+        <v>1247.322164152526</v>
       </c>
       <c r="S20">
-        <v>0.003600566200314206</v>
+        <v>0.009586235127064562</v>
       </c>
       <c r="T20">
-        <v>0.001816286971871497</v>
+        <v>0.005453952823329629</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.258465</v>
+        <v>27.914117</v>
       </c>
       <c r="H21">
-        <v>32.51693</v>
+        <v>55.828234</v>
       </c>
       <c r="I21">
-        <v>0.02187915572679892</v>
+        <v>0.02506052547003899</v>
       </c>
       <c r="J21">
-        <v>0.01470787351380484</v>
+        <v>0.01687477071231629</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.442826</v>
       </c>
       <c r="O21">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P21">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q21">
-        <v>67.43375034069668</v>
+        <v>115.7768335915473</v>
       </c>
       <c r="R21">
-        <v>404.60250204418</v>
+        <v>694.661001549284</v>
       </c>
       <c r="S21">
-        <v>0.002255115240275404</v>
+        <v>0.003559189376963183</v>
       </c>
       <c r="T21">
-        <v>0.001706371805060955</v>
+        <v>0.003037425646349228</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.258465</v>
+        <v>27.914117</v>
       </c>
       <c r="H22">
-        <v>32.51693</v>
+        <v>55.828234</v>
       </c>
       <c r="I22">
-        <v>0.02187915572679892</v>
+        <v>0.02506052547003899</v>
       </c>
       <c r="J22">
-        <v>0.01470787351380484</v>
+        <v>0.01687477071231629</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N22">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O22">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P22">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q22">
-        <v>85.50171204184835</v>
+        <v>70.741155608431</v>
       </c>
       <c r="R22">
-        <v>513.0102722510901</v>
+        <v>424.446933650586</v>
       </c>
       <c r="S22">
-        <v>0.002859342879804885</v>
+        <v>0.002174711138187573</v>
       </c>
       <c r="T22">
-        <v>0.002163571060122406</v>
+        <v>0.001855906692486339</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.258465</v>
+        <v>27.914117</v>
       </c>
       <c r="H23">
-        <v>32.51693</v>
+        <v>55.828234</v>
       </c>
       <c r="I23">
-        <v>0.02187915572679892</v>
+        <v>0.02506052547003899</v>
       </c>
       <c r="J23">
-        <v>0.01470787351380484</v>
+        <v>0.01687477071231629</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N23">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O23">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P23">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q23">
-        <v>111.350893799675</v>
+        <v>204.115253260303</v>
       </c>
       <c r="R23">
-        <v>445.4035751987</v>
+        <v>816.461013041212</v>
       </c>
       <c r="S23">
-        <v>0.003723789591373049</v>
+        <v>0.006274872256769505</v>
       </c>
       <c r="T23">
-        <v>0.001878446373298549</v>
+        <v>0.00356999977647328</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.258465</v>
+        <v>27.914117</v>
       </c>
       <c r="H24">
-        <v>32.51693</v>
+        <v>55.828234</v>
       </c>
       <c r="I24">
-        <v>0.02187915572679892</v>
+        <v>0.02506052547003899</v>
       </c>
       <c r="J24">
-        <v>0.01470787351380484</v>
+        <v>0.01687477071231629</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N24">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O24">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P24">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q24">
-        <v>115.8091058093717</v>
+        <v>56.28904954814167</v>
       </c>
       <c r="R24">
-        <v>694.8546348562301</v>
+        <v>337.73429728885</v>
       </c>
       <c r="S24">
-        <v>0.003872880837175795</v>
+        <v>0.001730427245038482</v>
       </c>
       <c r="T24">
-        <v>0.002930482020116444</v>
+        <v>0.001476753141386918</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.258465</v>
+        <v>27.914117</v>
       </c>
       <c r="H25">
-        <v>32.51693</v>
+        <v>55.828234</v>
       </c>
       <c r="I25">
-        <v>0.02187915572679892</v>
+        <v>0.02506052547003899</v>
       </c>
       <c r="J25">
-        <v>0.01470787351380484</v>
+        <v>0.01687477071231629</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N25">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O25">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P25">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q25">
-        <v>166.48141385734</v>
+        <v>56.44073485991966</v>
       </c>
       <c r="R25">
-        <v>998.8884831440402</v>
+        <v>338.644409159518</v>
       </c>
       <c r="S25">
-        <v>0.005567460977855583</v>
+        <v>0.001735090326015685</v>
       </c>
       <c r="T25">
-        <v>0.004212715283334994</v>
+        <v>0.001480732632290896</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.471567</v>
+        <v>213.0288186666667</v>
       </c>
       <c r="H26">
-        <v>7.414701000000001</v>
+        <v>639.086456</v>
       </c>
       <c r="I26">
-        <v>0.003326008899500489</v>
+        <v>0.1912514064495867</v>
       </c>
       <c r="J26">
-        <v>0.003353775539409234</v>
+        <v>0.1931717455068848</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N26">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O26">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P26">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q26">
-        <v>16.3671183036375</v>
+        <v>2379.759738828231</v>
       </c>
       <c r="R26">
-        <v>98.20270982182501</v>
+        <v>14278.55843296939</v>
       </c>
       <c r="S26">
-        <v>0.0005473481415380837</v>
+        <v>0.07315812083826498</v>
       </c>
       <c r="T26">
-        <v>0.0004141604028000972</v>
+        <v>0.06243341641530209</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.471567</v>
+        <v>213.0288186666667</v>
       </c>
       <c r="H27">
-        <v>7.414701000000001</v>
+        <v>639.086456</v>
       </c>
       <c r="I27">
-        <v>0.003326008899500489</v>
+        <v>0.1912514064495867</v>
       </c>
       <c r="J27">
-        <v>0.003353775539409234</v>
+        <v>0.1931717455068848</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.442826</v>
       </c>
       <c r="O27">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P27">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q27">
-        <v>10.25109270944733</v>
+        <v>883.5601745516285</v>
       </c>
       <c r="R27">
-        <v>92.25983438502601</v>
+        <v>7952.041570964656</v>
       </c>
       <c r="S27">
-        <v>0.0003428163980462952</v>
+        <v>0.02716223867605829</v>
       </c>
       <c r="T27">
-        <v>0.0003890969021170593</v>
+        <v>0.03477053549085642</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.471567</v>
+        <v>213.0288186666667</v>
       </c>
       <c r="H28">
-        <v>7.414701000000001</v>
+        <v>639.086456</v>
       </c>
       <c r="I28">
-        <v>0.003326008899500489</v>
+        <v>0.1912514064495867</v>
       </c>
       <c r="J28">
-        <v>0.003353775539409234</v>
+        <v>0.1931717455068848</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N28">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O28">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P28">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q28">
-        <v>12.99773440642367</v>
+        <v>539.8667925042694</v>
       </c>
       <c r="R28">
-        <v>116.979609657813</v>
+        <v>4858.801132538424</v>
       </c>
       <c r="S28">
-        <v>0.000434669417033571</v>
+        <v>0.01659648215665717</v>
       </c>
       <c r="T28">
-        <v>0.0004933501564588252</v>
+        <v>0.02124525075910114</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.471567</v>
+        <v>213.0288186666667</v>
       </c>
       <c r="H29">
-        <v>7.414701000000001</v>
+        <v>639.086456</v>
       </c>
       <c r="I29">
-        <v>0.003326008899500489</v>
+        <v>0.1912514064495867</v>
       </c>
       <c r="J29">
-        <v>0.003353775539409234</v>
+        <v>0.1931717455068848</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N29">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O29">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P29">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q29">
-        <v>16.927255711765</v>
+        <v>1557.721896554701</v>
       </c>
       <c r="R29">
-        <v>101.56353427059</v>
+        <v>9346.331379328209</v>
       </c>
       <c r="S29">
-        <v>0.000566080221532667</v>
+        <v>0.04788718998863006</v>
       </c>
       <c r="T29">
-        <v>0.0004283343539055847</v>
+        <v>0.04086710865808688</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.471567</v>
+        <v>213.0288186666667</v>
       </c>
       <c r="H30">
-        <v>7.414701000000001</v>
+        <v>639.086456</v>
       </c>
       <c r="I30">
-        <v>0.003326008899500489</v>
+        <v>0.1912514064495867</v>
       </c>
       <c r="J30">
-        <v>0.003353775539409234</v>
+        <v>0.1931717455068848</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N30">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O30">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P30">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q30">
-        <v>17.60498080341234</v>
+        <v>429.5743880814889</v>
       </c>
       <c r="R30">
-        <v>158.444827230711</v>
+        <v>3866.1694927334</v>
       </c>
       <c r="S30">
-        <v>0.000588744661448425</v>
+        <v>0.01320589405708812</v>
       </c>
       <c r="T30">
-        <v>0.0006682256893574952</v>
+        <v>0.01690493973919777</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.471567</v>
+        <v>213.0288186666667</v>
       </c>
       <c r="H31">
-        <v>7.414701000000001</v>
+        <v>639.086456</v>
       </c>
       <c r="I31">
-        <v>0.003326008899500489</v>
+        <v>0.1912514064495867</v>
       </c>
       <c r="J31">
-        <v>0.003353775539409234</v>
+        <v>0.1931717455068848</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N31">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O31">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P31">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q31">
-        <v>25.30804529229201</v>
+        <v>430.7319866821235</v>
       </c>
       <c r="R31">
-        <v>227.772407630628</v>
+        <v>3876.587880139112</v>
       </c>
       <c r="S31">
-        <v>0.0008463500599014476</v>
+        <v>0.01324148073288806</v>
       </c>
       <c r="T31">
-        <v>0.0009606080347701724</v>
+        <v>0.01695049444434047</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>307.0968833333333</v>
+        <v>505.8991496666667</v>
       </c>
       <c r="H32">
-        <v>921.29065</v>
+        <v>1517.697449</v>
       </c>
       <c r="I32">
-        <v>0.4132629085011776</v>
+        <v>0.4541823237859384</v>
       </c>
       <c r="J32">
-        <v>0.4167129661272159</v>
+        <v>0.4587427297546676</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>6.6221625</v>
+        <v>11.1710695</v>
       </c>
       <c r="N32">
-        <v>13.244325</v>
+        <v>22.342139</v>
       </c>
       <c r="O32">
-        <v>0.1645660484012193</v>
+        <v>0.3825233089595566</v>
       </c>
       <c r="P32">
-        <v>0.1234907935648703</v>
+        <v>0.3232015958207352</v>
       </c>
       <c r="Q32">
-        <v>2033.645464676875</v>
+        <v>5651.434560917236</v>
       </c>
       <c r="R32">
-        <v>12201.87278806125</v>
+        <v>33908.60736550341</v>
       </c>
       <c r="S32">
-        <v>0.06800904380283346</v>
+        <v>0.1737353253655379</v>
       </c>
       <c r="T32">
-        <v>0.0514602148758208</v>
+        <v>0.1482663823278688</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>307.0968833333333</v>
+        <v>505.8991496666667</v>
       </c>
       <c r="H33">
-        <v>921.29065</v>
+        <v>1517.697449</v>
       </c>
       <c r="I33">
-        <v>0.4132629085011776</v>
+        <v>0.4541823237859384</v>
       </c>
       <c r="J33">
-        <v>0.4167129661272159</v>
+        <v>0.4587427297546676</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.442826</v>
       </c>
       <c r="O33">
-        <v>0.1030714013115781</v>
+        <v>0.1420237329507858</v>
       </c>
       <c r="P33">
-        <v>0.1160175740877395</v>
+        <v>0.1799980395663877</v>
       </c>
       <c r="Q33">
-        <v>1273.717694819655</v>
+        <v>2098.271697616764</v>
       </c>
       <c r="R33">
-        <v>11463.4592533769</v>
+        <v>18884.44527855087</v>
       </c>
       <c r="S33">
-        <v>0.04259558708931487</v>
+        <v>0.06450466906434144</v>
       </c>
       <c r="T33">
-        <v>0.04834602742098595</v>
+        <v>0.08257279202117337</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>307.0968833333333</v>
+        <v>505.8991496666667</v>
       </c>
       <c r="H34">
-        <v>921.29065</v>
+        <v>1517.697449</v>
       </c>
       <c r="I34">
-        <v>0.4132629085011776</v>
+        <v>0.4541823237859384</v>
       </c>
       <c r="J34">
-        <v>0.4167129661272159</v>
+        <v>0.4587427297546676</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.258904333333334</v>
+        <v>2.534243</v>
       </c>
       <c r="N34">
-        <v>15.776713</v>
+        <v>7.602729</v>
       </c>
       <c r="O34">
-        <v>0.1306879897702171</v>
+        <v>0.08677835350210591</v>
       </c>
       <c r="P34">
-        <v>0.147102914509815</v>
+        <v>0.1099811502109347</v>
       </c>
       <c r="Q34">
-        <v>1614.993130514828</v>
+        <v>1282.071378748703</v>
       </c>
       <c r="R34">
-        <v>14534.93817463345</v>
+        <v>11538.64240873832</v>
       </c>
       <c r="S34">
-        <v>0.05400849875861208</v>
+        <v>0.03941319424790409</v>
       </c>
       <c r="T34">
-        <v>0.06129969183134327</v>
+        <v>0.0504530530693223</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>307.0968833333333</v>
+        <v>505.8991496666667</v>
       </c>
       <c r="H35">
-        <v>921.29065</v>
+        <v>1517.697449</v>
       </c>
       <c r="I35">
-        <v>0.4132629085011776</v>
+        <v>0.4541823237859384</v>
       </c>
       <c r="J35">
-        <v>0.4167129661272159</v>
+        <v>0.4587427297546676</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.848795</v>
+        <v>7.312259</v>
       </c>
       <c r="N35">
-        <v>13.69759</v>
+        <v>14.624518</v>
       </c>
       <c r="O35">
-        <v>0.1701980477615928</v>
+        <v>0.2503886945336163</v>
       </c>
       <c r="P35">
-        <v>0.1277170606298344</v>
+        <v>0.211558416842231</v>
       </c>
       <c r="Q35">
-        <v>2103.243599088917</v>
+        <v>3699.265610242431</v>
       </c>
       <c r="R35">
-        <v>12619.4615945335</v>
+        <v>22195.59366145458</v>
       </c>
       <c r="S35">
-        <v>0.07033654023917819</v>
+        <v>0.1137221191330054</v>
       </c>
       <c r="T35">
-        <v>0.05322135516010776</v>
+        <v>0.09705088564478087</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>307.0968833333333</v>
+        <v>505.8991496666667</v>
       </c>
       <c r="H36">
-        <v>921.29065</v>
+        <v>1517.697449</v>
       </c>
       <c r="I36">
-        <v>0.4132629085011776</v>
+        <v>0.4541823237859384</v>
       </c>
       <c r="J36">
-        <v>0.4167129661272159</v>
+        <v>0.4587427297546676</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.123003666666667</v>
+        <v>2.016508333333333</v>
       </c>
       <c r="N36">
-        <v>21.369011</v>
+        <v>6.049525</v>
       </c>
       <c r="O36">
-        <v>0.1770123530147032</v>
+        <v>0.06904991865024089</v>
       </c>
       <c r="P36">
-        <v>0.1992457996980928</v>
+        <v>0.08751248633613068</v>
       </c>
       <c r="Q36">
-        <v>2187.452226005239</v>
+        <v>1020.149851129081</v>
       </c>
       <c r="R36">
-        <v>19687.07003404715</v>
+        <v>9181.348660161726</v>
       </c>
       <c r="S36">
-        <v>0.07315263984749343</v>
+        <v>0.03136125250979642</v>
       </c>
       <c r="T36">
-        <v>0.08302830818058136</v>
+        <v>0.04014571686945464</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>307.0968833333333</v>
+        <v>505.8991496666667</v>
       </c>
       <c r="H37">
-        <v>921.29065</v>
+        <v>1517.697449</v>
       </c>
       <c r="I37">
-        <v>0.4132629085011776</v>
+        <v>0.4541823237859384</v>
       </c>
       <c r="J37">
-        <v>0.4167129661272159</v>
+        <v>0.4587427297546676</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.239676</v>
+        <v>2.021942333333333</v>
       </c>
       <c r="N37">
-        <v>30.719028</v>
+        <v>6.065827</v>
       </c>
       <c r="O37">
-        <v>0.2544641597406895</v>
+        <v>0.06923599140369445</v>
       </c>
       <c r="P37">
-        <v>0.2864258575096481</v>
+        <v>0.08774831122358079</v>
       </c>
       <c r="Q37">
-        <v>3144.572585943134</v>
+        <v>1022.898907108369</v>
       </c>
       <c r="R37">
-        <v>28301.1532734882</v>
+        <v>9206.090163975323</v>
       </c>
       <c r="S37">
-        <v>0.1051605987637456</v>
+        <v>0.0314457634653532</v>
       </c>
       <c r="T37">
-        <v>0.1193573686583767</v>
+        <v>0.04025389982206759</v>
       </c>
     </row>
   </sheetData>
